--- a/data/pca/factorExposure/factorExposure_2010-04-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-14.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0148147227054828</v>
+        <v>-0.01709403752539256</v>
       </c>
       <c r="C2">
-        <v>0.001931923523127146</v>
+        <v>0.001118501444935212</v>
       </c>
       <c r="D2">
-        <v>0.01055060001204504</v>
+        <v>0.008126888421553947</v>
       </c>
       <c r="E2">
-        <v>0.009771479887497669</v>
+        <v>0.0001474893870045229</v>
       </c>
       <c r="F2">
-        <v>-0.01837900189821589</v>
+        <v>0.01073729720582423</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1166899864914834</v>
+        <v>-0.0931609485535989</v>
       </c>
       <c r="C4">
-        <v>-0.07131130536129376</v>
+        <v>0.01668126548634205</v>
       </c>
       <c r="D4">
-        <v>0.04669960358708374</v>
+        <v>0.083836501629053</v>
       </c>
       <c r="E4">
-        <v>-0.003564308563246911</v>
+        <v>-0.03059402103782271</v>
       </c>
       <c r="F4">
-        <v>-0.01122124788885162</v>
+        <v>-0.03196495236650259</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1227637300498861</v>
+        <v>-0.1537313478907045</v>
       </c>
       <c r="C6">
-        <v>-0.01346917226523244</v>
+        <v>0.02441314098810921</v>
       </c>
       <c r="D6">
-        <v>0.02825678823406029</v>
+        <v>-0.02225255236278175</v>
       </c>
       <c r="E6">
-        <v>0.03598746771009993</v>
+        <v>-0.008264633378657713</v>
       </c>
       <c r="F6">
-        <v>0.05562943655995411</v>
+        <v>-0.04480207519842051</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06704978705491565</v>
+        <v>-0.05934190629441379</v>
       </c>
       <c r="C7">
-        <v>-0.05427658889533871</v>
+        <v>-0.000609268731940972</v>
       </c>
       <c r="D7">
-        <v>0.06755684542284887</v>
+        <v>0.05237645049673753</v>
       </c>
       <c r="E7">
-        <v>0.02634138671894094</v>
+        <v>-0.01499166597028904</v>
       </c>
       <c r="F7">
-        <v>-0.041570516753445</v>
+        <v>-0.0515800259538035</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05288671823374477</v>
+        <v>-0.05834922125403491</v>
       </c>
       <c r="C8">
-        <v>-0.02738984752176142</v>
+        <v>-0.01272227469382106</v>
       </c>
       <c r="D8">
-        <v>0.04108531032742956</v>
+        <v>0.03113625370545534</v>
       </c>
       <c r="E8">
-        <v>-0.005300706199467375</v>
+        <v>-0.01562442847448647</v>
       </c>
       <c r="F8">
-        <v>0.02002679558887598</v>
+        <v>0.02938623228231128</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07967357070364942</v>
+        <v>-0.07108284614644128</v>
       </c>
       <c r="C9">
-        <v>-0.04930355082669203</v>
+        <v>0.01275236875539782</v>
       </c>
       <c r="D9">
-        <v>0.0394026004732458</v>
+        <v>0.08318054449619997</v>
       </c>
       <c r="E9">
-        <v>-0.01607732236891938</v>
+        <v>-0.02507339075210725</v>
       </c>
       <c r="F9">
-        <v>-0.01258352369983861</v>
+        <v>-0.05407980299835646</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1181656044505326</v>
+        <v>-0.0947354936424325</v>
       </c>
       <c r="C10">
-        <v>0.1508089065801556</v>
+        <v>0.01702513647216402</v>
       </c>
       <c r="D10">
-        <v>-0.05996021947468223</v>
+        <v>-0.1710771603832983</v>
       </c>
       <c r="E10">
-        <v>0.008296760615928028</v>
+        <v>0.03946085664819118</v>
       </c>
       <c r="F10">
-        <v>-0.03642569407106037</v>
+        <v>0.05294653205009429</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07462876184524191</v>
+        <v>-0.08751731232699142</v>
       </c>
       <c r="C11">
-        <v>-0.03943656300272147</v>
+        <v>0.01213598948620024</v>
       </c>
       <c r="D11">
-        <v>0.06268958117934148</v>
+        <v>0.1145234437579117</v>
       </c>
       <c r="E11">
-        <v>-0.01586386359587479</v>
+        <v>-0.04925839189162068</v>
       </c>
       <c r="F11">
-        <v>0.004782312967425476</v>
+        <v>-0.02029959644922338</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0736515795454948</v>
+        <v>-0.09218125074739837</v>
       </c>
       <c r="C12">
-        <v>-0.05388576036838966</v>
+        <v>0.01002013510439853</v>
       </c>
       <c r="D12">
-        <v>0.07357833560035099</v>
+        <v>0.1225370711501978</v>
       </c>
       <c r="E12">
-        <v>-0.06085868686850411</v>
+        <v>-0.04831491234403099</v>
       </c>
       <c r="F12">
-        <v>-0.02790594046984009</v>
+        <v>-0.02027874611321586</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03005005707478987</v>
+        <v>-0.04284094430390661</v>
       </c>
       <c r="C13">
-        <v>-0.02805588852881152</v>
+        <v>0.003873828952984398</v>
       </c>
       <c r="D13">
-        <v>0.01815683518775795</v>
+        <v>0.04764152927744601</v>
       </c>
       <c r="E13">
-        <v>0.02117865906007764</v>
+        <v>0.01125551597259722</v>
       </c>
       <c r="F13">
-        <v>-0.01827597962479953</v>
+        <v>-0.01377238641451909</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03929850263272217</v>
+        <v>-0.0222652825849133</v>
       </c>
       <c r="C14">
-        <v>-0.02934734790586214</v>
+        <v>0.01435159333162427</v>
       </c>
       <c r="D14">
-        <v>0.01808469591250948</v>
+        <v>0.03241663638251518</v>
       </c>
       <c r="E14">
-        <v>-0.02133043800098252</v>
+        <v>-0.0190223960896702</v>
       </c>
       <c r="F14">
-        <v>-0.005328096345646368</v>
+        <v>-0.01969770290474553</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01593615568834192</v>
+        <v>-0.03152622610706809</v>
       </c>
       <c r="C15">
-        <v>-0.01052886275302956</v>
+        <v>0.005607297743368866</v>
       </c>
       <c r="D15">
-        <v>0.005098342325776966</v>
+        <v>0.04513330674249037</v>
       </c>
       <c r="E15">
-        <v>0.04239862786121414</v>
+        <v>-0.008832272538625983</v>
       </c>
       <c r="F15">
-        <v>-0.0190231416859943</v>
+        <v>-0.03036975576593736</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08120159788080474</v>
+        <v>-0.07351842596674066</v>
       </c>
       <c r="C16">
-        <v>-0.04215001934512142</v>
+        <v>0.003725946630926739</v>
       </c>
       <c r="D16">
-        <v>0.07341868251776794</v>
+        <v>0.1171685911316763</v>
       </c>
       <c r="E16">
-        <v>-0.03751327876751969</v>
+        <v>-0.06352415075678766</v>
       </c>
       <c r="F16">
-        <v>-0.0008153929722547079</v>
+        <v>-0.02895576340703946</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02321941900133548</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.0036221065340458</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.01892911378008087</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.009568770063996108</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01698257997937156</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04765132345580828</v>
+        <v>-0.06117021406176811</v>
       </c>
       <c r="C20">
-        <v>-0.04375289713089978</v>
+        <v>0.001440644771309778</v>
       </c>
       <c r="D20">
-        <v>-0.002609920092038967</v>
+        <v>0.07430663621433144</v>
       </c>
       <c r="E20">
-        <v>0.02585338297312491</v>
+        <v>-0.05565448398373067</v>
       </c>
       <c r="F20">
-        <v>-0.01280319199153723</v>
+        <v>-0.02871072927183877</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02813109256380079</v>
+        <v>-0.03885659516981634</v>
       </c>
       <c r="C21">
-        <v>-0.0159135571306141</v>
+        <v>0.007201602866309591</v>
       </c>
       <c r="D21">
-        <v>-0.01486698202840029</v>
+        <v>0.03758625126089336</v>
       </c>
       <c r="E21">
-        <v>-0.01152590976368813</v>
+        <v>0.00760465557401777</v>
       </c>
       <c r="F21">
-        <v>0.01837635308498193</v>
+        <v>0.01956637799165754</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02856923756953723</v>
+        <v>-0.04228537754137062</v>
       </c>
       <c r="C22">
-        <v>0.02546535608976273</v>
+        <v>0.0003267252479957587</v>
       </c>
       <c r="D22">
-        <v>-0.006320286983508007</v>
+        <v>0.002771147419460292</v>
       </c>
       <c r="E22">
-        <v>0.6035058508983083</v>
+        <v>-0.02925307613262251</v>
       </c>
       <c r="F22">
-        <v>-0.1887158653223671</v>
+        <v>0.008336052159507789</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02881550628840584</v>
+        <v>-0.04234378096927454</v>
       </c>
       <c r="C23">
-        <v>0.02523331337243191</v>
+        <v>0.0003511992989655815</v>
       </c>
       <c r="D23">
-        <v>-0.004615558430344475</v>
+        <v>0.002907646103056146</v>
       </c>
       <c r="E23">
-        <v>0.6068763095100062</v>
+        <v>-0.02961220527551913</v>
       </c>
       <c r="F23">
-        <v>-0.1879750053785702</v>
+        <v>0.007879011859911439</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08105064648555615</v>
+        <v>-0.0799412871735951</v>
       </c>
       <c r="C24">
-        <v>-0.05099030257364004</v>
+        <v>0.003982294376268501</v>
       </c>
       <c r="D24">
-        <v>0.05208967971449383</v>
+        <v>0.1181436794958467</v>
       </c>
       <c r="E24">
-        <v>-0.03321903355102093</v>
+        <v>-0.05139435243715746</v>
       </c>
       <c r="F24">
-        <v>-0.004477776593295139</v>
+        <v>-0.02205745156767416</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08841655237075302</v>
+        <v>-0.08480411442106649</v>
       </c>
       <c r="C25">
-        <v>-0.05277096767348555</v>
+        <v>0.005977853273971503</v>
       </c>
       <c r="D25">
-        <v>0.07153991692245287</v>
+        <v>0.1064445232040923</v>
       </c>
       <c r="E25">
-        <v>-0.0632785829124186</v>
+        <v>-0.03456939974215876</v>
       </c>
       <c r="F25">
-        <v>-0.02106072731198988</v>
+        <v>-0.02960332874411534</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04177924422902592</v>
+        <v>-0.05466266791559291</v>
       </c>
       <c r="C26">
-        <v>-0.001422806465532683</v>
+        <v>0.01521151361377778</v>
       </c>
       <c r="D26">
-        <v>-0.01002761773670895</v>
+        <v>0.0373068078726614</v>
       </c>
       <c r="E26">
-        <v>0.01252630674845827</v>
+        <v>-0.02795841728503309</v>
       </c>
       <c r="F26">
-        <v>0.01428009439401442</v>
+        <v>0.01283488467665421</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1367806250331951</v>
+        <v>-0.1431300791992697</v>
       </c>
       <c r="C28">
-        <v>0.2886922871328311</v>
+        <v>0.01523251978225699</v>
       </c>
       <c r="D28">
-        <v>-0.07424284852580193</v>
+        <v>-0.2667204099696882</v>
       </c>
       <c r="E28">
-        <v>-0.02710679799979887</v>
+        <v>0.06896370862177405</v>
       </c>
       <c r="F28">
-        <v>0.02141522686569676</v>
+        <v>-0.0284319963655429</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03347448354155207</v>
+        <v>-0.02715314469526803</v>
       </c>
       <c r="C29">
-        <v>-0.01849771408157963</v>
+        <v>0.008724202971950534</v>
       </c>
       <c r="D29">
-        <v>0.02568687416423292</v>
+        <v>0.0311624971144036</v>
       </c>
       <c r="E29">
-        <v>-0.03463864044016462</v>
+        <v>-0.01198835443141621</v>
       </c>
       <c r="F29">
-        <v>-0.04242014615140878</v>
+        <v>0.01172694990444573</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09951756675296372</v>
+        <v>-0.06305392651528045</v>
       </c>
       <c r="C30">
-        <v>-0.06387503703958716</v>
+        <v>0.005173125589081523</v>
       </c>
       <c r="D30">
-        <v>0.09297499816988501</v>
+        <v>0.0849886515536173</v>
       </c>
       <c r="E30">
-        <v>-0.0388616588161858</v>
+        <v>-0.0252254979791074</v>
       </c>
       <c r="F30">
-        <v>0.04542580760366008</v>
+        <v>-0.1048061260991505</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02915226698597095</v>
+        <v>-0.04828573342132378</v>
       </c>
       <c r="C31">
-        <v>-0.03494778314655814</v>
+        <v>0.01505087868742489</v>
       </c>
       <c r="D31">
-        <v>0.01384623147825234</v>
+        <v>0.0283312192421724</v>
       </c>
       <c r="E31">
-        <v>0.0031318293408598</v>
+        <v>-0.02714558893200292</v>
       </c>
       <c r="F31">
-        <v>-0.009540916125208443</v>
+        <v>0.004363783201603273</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05659421743663143</v>
+        <v>-0.04782065611647639</v>
       </c>
       <c r="C32">
-        <v>-0.02173542266480936</v>
+        <v>3.160693938569953e-05</v>
       </c>
       <c r="D32">
-        <v>-0.003914862725057996</v>
+        <v>0.03117577105083819</v>
       </c>
       <c r="E32">
-        <v>-0.06630889989650744</v>
+        <v>-0.02982110969787975</v>
       </c>
       <c r="F32">
-        <v>0.07723355760171699</v>
+        <v>-0.001810661504961015</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08721881957312853</v>
+        <v>-0.09025617369627764</v>
       </c>
       <c r="C33">
-        <v>-0.03580139796686009</v>
+        <v>0.009310414212761891</v>
       </c>
       <c r="D33">
-        <v>0.0930543369583425</v>
+        <v>0.09389156659775538</v>
       </c>
       <c r="E33">
-        <v>-0.02194963312710999</v>
+        <v>-0.04748675053069765</v>
       </c>
       <c r="F33">
-        <v>-0.012695911682089</v>
+        <v>-0.04163627160534444</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06811581644853573</v>
+        <v>-0.06751433785822181</v>
       </c>
       <c r="C34">
-        <v>-0.03422955164094187</v>
+        <v>0.01232123592339009</v>
       </c>
       <c r="D34">
-        <v>0.05153729039998352</v>
+        <v>0.09900196278683485</v>
       </c>
       <c r="E34">
-        <v>-0.03417393733609148</v>
+        <v>-0.03585426241878358</v>
       </c>
       <c r="F34">
-        <v>-0.01256046520210033</v>
+        <v>-0.03977180827856533</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01009369554642701</v>
+        <v>-0.02430588841748201</v>
       </c>
       <c r="C35">
-        <v>-0.01152596783329995</v>
+        <v>0.002451239766521449</v>
       </c>
       <c r="D35">
-        <v>0.01692404986667195</v>
+        <v>0.01206919159202808</v>
       </c>
       <c r="E35">
-        <v>0.001132169759625946</v>
+        <v>-0.01136002647419412</v>
       </c>
       <c r="F35">
-        <v>-0.01917727050578061</v>
+        <v>-0.008811156175938721</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02544430901941708</v>
+        <v>-0.02434956584031838</v>
       </c>
       <c r="C36">
-        <v>-0.01162054837938724</v>
+        <v>0.007305679281037277</v>
       </c>
       <c r="D36">
-        <v>0.01273453568655139</v>
+        <v>0.03761965129827347</v>
       </c>
       <c r="E36">
-        <v>0.008064821385070902</v>
+        <v>-0.01785820296111902</v>
       </c>
       <c r="F36">
-        <v>0.004062864217424313</v>
+        <v>-0.01275965682451121</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.007893838465292837</v>
+        <v>-0.001532604666049787</v>
       </c>
       <c r="C38">
-        <v>-0.01061465919768874</v>
+        <v>0.0002449950267414409</v>
       </c>
       <c r="D38">
-        <v>0.01022639897657452</v>
+        <v>0.001242976373200455</v>
       </c>
       <c r="E38">
-        <v>0.01814204950157559</v>
+        <v>-0.001389581503805644</v>
       </c>
       <c r="F38">
-        <v>-0.03473834979476113</v>
+        <v>0.0009904939490019222</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1159968144446584</v>
+        <v>-0.1082717559638853</v>
       </c>
       <c r="C39">
-        <v>-0.07946269622967454</v>
+        <v>0.01761809442170394</v>
       </c>
       <c r="D39">
-        <v>0.1227325179206575</v>
+        <v>0.153850997217484</v>
       </c>
       <c r="E39">
-        <v>-0.1359173573159489</v>
+        <v>-0.06179514568176084</v>
       </c>
       <c r="F39">
-        <v>-0.01322192308385512</v>
+        <v>-0.02633242586272794</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.007149019644455043</v>
+        <v>-0.03713728190413089</v>
       </c>
       <c r="C40">
-        <v>-0.0411518393906535</v>
+        <v>0.007376755907747615</v>
       </c>
       <c r="D40">
-        <v>0.003321488881550481</v>
+        <v>0.0316894592956757</v>
       </c>
       <c r="E40">
-        <v>0.06692650320644804</v>
+        <v>-0.00340246395903818</v>
       </c>
       <c r="F40">
-        <v>-0.04642496182406166</v>
+        <v>0.01296912940642076</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02737913595531194</v>
+        <v>-0.02638165675778503</v>
       </c>
       <c r="C41">
-        <v>-0.01078687365020997</v>
+        <v>0.006709696511436988</v>
       </c>
       <c r="D41">
-        <v>0.006015459817962243</v>
+        <v>0.0111770545667411</v>
       </c>
       <c r="E41">
-        <v>-0.005391266801383274</v>
+        <v>-0.01276157913285696</v>
       </c>
       <c r="F41">
-        <v>-0.01050413890295034</v>
+        <v>0.008749532313178088</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03723222316082301</v>
+        <v>-0.04071524810728272</v>
       </c>
       <c r="C43">
-        <v>-0.002037600487567985</v>
+        <v>0.006891980079603898</v>
       </c>
       <c r="D43">
-        <v>0.02752738112044062</v>
+        <v>0.02114247050333031</v>
       </c>
       <c r="E43">
-        <v>0.0008347093728969708</v>
+        <v>-0.02496875569748896</v>
       </c>
       <c r="F43">
-        <v>-0.003778345766039387</v>
+        <v>0.01260440169133773</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1158770922653513</v>
+        <v>-0.07587800430739675</v>
       </c>
       <c r="C44">
-        <v>-0.1073636554246483</v>
+        <v>0.02209034813217415</v>
       </c>
       <c r="D44">
-        <v>0.1405040767851621</v>
+        <v>0.09570799100376182</v>
       </c>
       <c r="E44">
-        <v>0.1087513461854643</v>
+        <v>-0.07551807013623812</v>
       </c>
       <c r="F44">
-        <v>-0.1269657259833281</v>
+        <v>-0.1879443412737299</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02065384346212002</v>
+        <v>-0.02204601559390586</v>
       </c>
       <c r="C46">
-        <v>0.01688369296364549</v>
+        <v>0.003737466227194786</v>
       </c>
       <c r="D46">
-        <v>0.02264245972433145</v>
+        <v>0.01271458001289011</v>
       </c>
       <c r="E46">
-        <v>0.02534832660117029</v>
+        <v>-0.02374254099426118</v>
       </c>
       <c r="F46">
-        <v>-0.03252878427856954</v>
+        <v>-0.001074980377043291</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03718255443549069</v>
+        <v>-0.05194171488451889</v>
       </c>
       <c r="C47">
-        <v>-0.02052381198836107</v>
+        <v>0.003297640190843726</v>
       </c>
       <c r="D47">
-        <v>0.01271906908981325</v>
+        <v>0.01286559161754041</v>
       </c>
       <c r="E47">
-        <v>-0.005497910642733593</v>
+        <v>-0.02217209543146232</v>
       </c>
       <c r="F47">
-        <v>-0.002122090520670709</v>
+        <v>0.04455561412229598</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0418016868881269</v>
+        <v>-0.04764198571777646</v>
       </c>
       <c r="C48">
-        <v>-0.01268388936195642</v>
+        <v>0.003073318825975336</v>
       </c>
       <c r="D48">
-        <v>0.01070561836178236</v>
+        <v>0.0483224734067382</v>
       </c>
       <c r="E48">
-        <v>-0.009032114422331188</v>
+        <v>0.004251089148163236</v>
       </c>
       <c r="F48">
-        <v>-0.01869196642785859</v>
+        <v>-0.0100642597922946</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2231746785981949</v>
+        <v>-0.2027223201760329</v>
       </c>
       <c r="C49">
-        <v>-0.01054389691473148</v>
+        <v>0.01780522713242115</v>
       </c>
       <c r="D49">
-        <v>-0.06204109470103065</v>
+        <v>-0.0111976685173516</v>
       </c>
       <c r="E49">
-        <v>-0.03054646349634805</v>
+        <v>-0.03315023788089968</v>
       </c>
       <c r="F49">
-        <v>-0.039457418213613</v>
+        <v>-0.03203714250152054</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03736689595616868</v>
+        <v>-0.04819634374031544</v>
       </c>
       <c r="C50">
-        <v>-0.02797012488757392</v>
+        <v>0.01114842080090383</v>
       </c>
       <c r="D50">
-        <v>0.005624932623022853</v>
+        <v>0.02681102014819053</v>
       </c>
       <c r="E50">
-        <v>-0.009877936364859738</v>
+        <v>-0.02969996198676801</v>
       </c>
       <c r="F50">
-        <v>-0.005730532891924875</v>
+        <v>-0.00899890795942941</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01369821359342092</v>
+        <v>-0.002437227213924691</v>
       </c>
       <c r="C51">
-        <v>0.02606332994983601</v>
+        <v>0.0006379455639735074</v>
       </c>
       <c r="D51">
-        <v>0.00760436594306685</v>
+        <v>-0.002897470894904579</v>
       </c>
       <c r="E51">
-        <v>0.006953313515264808</v>
+        <v>0.0004298239455462483</v>
       </c>
       <c r="F51">
-        <v>-0.01134473925651634</v>
+        <v>-0.005471969268182514</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09968933264731916</v>
+        <v>-0.1446168647313407</v>
       </c>
       <c r="C52">
-        <v>-0.08106758987889401</v>
+        <v>0.01375023768247902</v>
       </c>
       <c r="D52">
-        <v>0.0348465396357655</v>
+        <v>0.0524960781341434</v>
       </c>
       <c r="E52">
-        <v>-0.0139571973182187</v>
+        <v>-0.02384235650233785</v>
       </c>
       <c r="F52">
-        <v>-0.01511067284151641</v>
+        <v>-0.03313519010685279</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1586114247837546</v>
+        <v>-0.1740770098960999</v>
       </c>
       <c r="C53">
-        <v>-0.04091215218471809</v>
+        <v>0.01657571940610311</v>
       </c>
       <c r="D53">
-        <v>0.01097889528138092</v>
+        <v>0.01179538651640726</v>
       </c>
       <c r="E53">
-        <v>0.0169351775698388</v>
+        <v>-0.03520513534966423</v>
       </c>
       <c r="F53">
-        <v>-0.03377926395147034</v>
+        <v>-0.06461301313674399</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05049583290606346</v>
+        <v>-0.02131464753850634</v>
       </c>
       <c r="C54">
-        <v>-0.0550794673164476</v>
+        <v>0.01260733998922406</v>
       </c>
       <c r="D54">
-        <v>0.02568833923186559</v>
+        <v>0.03350374442758244</v>
       </c>
       <c r="E54">
-        <v>0.02302129351445133</v>
+        <v>-0.01594406946832105</v>
       </c>
       <c r="F54">
-        <v>-0.01255112040299657</v>
+        <v>0.00586767412446012</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08350476138005219</v>
+        <v>-0.1140149826631477</v>
       </c>
       <c r="C55">
-        <v>-0.01305349404941971</v>
+        <v>0.01522116619643928</v>
       </c>
       <c r="D55">
-        <v>0.06897584944779148</v>
+        <v>0.01191943802773585</v>
       </c>
       <c r="E55">
-        <v>-0.02453914414288946</v>
+        <v>-0.02986359897654796</v>
       </c>
       <c r="F55">
-        <v>-0.02112151578189328</v>
+        <v>-0.04444784554179437</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1538396447131634</v>
+        <v>-0.177854158361479</v>
       </c>
       <c r="C56">
-        <v>-0.05141112076824809</v>
+        <v>0.01390331115358539</v>
       </c>
       <c r="D56">
-        <v>0.04481578782538194</v>
+        <v>0.007484466944887916</v>
       </c>
       <c r="E56">
-        <v>-0.01204492058346624</v>
+        <v>-0.03947712532666736</v>
       </c>
       <c r="F56">
-        <v>-0.06689891348598703</v>
+        <v>-0.04071961022398038</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05138970905198342</v>
+        <v>-0.0467489105626813</v>
       </c>
       <c r="C58">
-        <v>-0.03799788109455396</v>
+        <v>0.002229248453570944</v>
       </c>
       <c r="D58">
-        <v>0.009306302089773748</v>
+        <v>0.06538304356357769</v>
       </c>
       <c r="E58">
-        <v>0.05175596766689039</v>
+        <v>-0.02396210121071193</v>
       </c>
       <c r="F58">
-        <v>-0.0306275231389839</v>
+        <v>0.04409464872410004</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1902685498245265</v>
+        <v>-0.1724032002724704</v>
       </c>
       <c r="C59">
-        <v>0.242735923095164</v>
+        <v>0.01650857822798125</v>
       </c>
       <c r="D59">
-        <v>-0.0478945874874349</v>
+        <v>-0.2248171980246461</v>
       </c>
       <c r="E59">
-        <v>-0.0419746343527212</v>
+        <v>0.04826263886086814</v>
       </c>
       <c r="F59">
-        <v>0.002178654959278136</v>
+        <v>0.03267665180926162</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.255058294035253</v>
+        <v>-0.2364449828754847</v>
       </c>
       <c r="C60">
-        <v>-0.2023786215472378</v>
+        <v>-0.003631013131870682</v>
       </c>
       <c r="D60">
-        <v>0.01390425196682978</v>
+        <v>0.04713650642402325</v>
       </c>
       <c r="E60">
-        <v>-0.08126485986833987</v>
+        <v>-0.008080280782928084</v>
       </c>
       <c r="F60">
-        <v>-0.1692038775575589</v>
+        <v>0.03055283802947345</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1073557240880359</v>
+        <v>-0.08314586056797273</v>
       </c>
       <c r="C61">
-        <v>-0.0432721295032084</v>
+        <v>0.01381745178753757</v>
       </c>
       <c r="D61">
-        <v>0.08589770596673495</v>
+        <v>0.1131309556499987</v>
       </c>
       <c r="E61">
-        <v>-0.08047958725614034</v>
+        <v>-0.0425950140829473</v>
       </c>
       <c r="F61">
-        <v>-0.03262717152146533</v>
+        <v>-0.01376887006067876</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1523106375542537</v>
+        <v>-0.170400293334072</v>
       </c>
       <c r="C62">
-        <v>-0.03511614343668617</v>
+        <v>0.01778842609594057</v>
       </c>
       <c r="D62">
-        <v>0.03199161028467954</v>
+        <v>0.01131654537845012</v>
       </c>
       <c r="E62">
-        <v>0.0007576264994505088</v>
+        <v>-0.03692050346877945</v>
       </c>
       <c r="F62">
-        <v>-0.04969979749611512</v>
+        <v>-0.02209716447945037</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03930809795618797</v>
+        <v>-0.0426335372460115</v>
       </c>
       <c r="C63">
-        <v>-0.001068104464978292</v>
+        <v>0.003195153305266471</v>
       </c>
       <c r="D63">
-        <v>0.01224230689496853</v>
+        <v>0.0517844705992082</v>
       </c>
       <c r="E63">
-        <v>-0.0003640149741849951</v>
+        <v>-0.02303601781690456</v>
       </c>
       <c r="F63">
-        <v>0.04076579228371899</v>
+        <v>-0.006455073142856043</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09413188660125535</v>
+        <v>-0.1120797570110282</v>
       </c>
       <c r="C64">
-        <v>-0.03406915350504782</v>
+        <v>0.01154553720838694</v>
       </c>
       <c r="D64">
-        <v>0.01670737227821278</v>
+        <v>0.04265856447149673</v>
       </c>
       <c r="E64">
-        <v>-0.009279662438307785</v>
+        <v>-0.02105545520131943</v>
       </c>
       <c r="F64">
-        <v>-0.06963697543126449</v>
+        <v>-0.02455821924317592</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1127691997368722</v>
+        <v>-0.1451786002098039</v>
       </c>
       <c r="C65">
-        <v>-0.006576258712055206</v>
+        <v>0.03087414401502205</v>
       </c>
       <c r="D65">
-        <v>0.01476132177407956</v>
+        <v>-0.04359670992923407</v>
       </c>
       <c r="E65">
-        <v>-0.001174691671676003</v>
+        <v>0.001100929201633401</v>
       </c>
       <c r="F65">
-        <v>0.06216372377948541</v>
+        <v>-0.0468846682995304</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1320608735732847</v>
+        <v>-0.1294254496220536</v>
       </c>
       <c r="C66">
-        <v>-0.08730936856267789</v>
+        <v>0.01543963421840066</v>
       </c>
       <c r="D66">
-        <v>0.1244758647247185</v>
+        <v>0.1416667923361774</v>
       </c>
       <c r="E66">
-        <v>-0.1085761355848607</v>
+        <v>-0.06874954694383471</v>
       </c>
       <c r="F66">
-        <v>-0.02268518929756963</v>
+        <v>-0.03105092479739411</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05743675599674539</v>
+        <v>-0.06206074131898254</v>
       </c>
       <c r="C67">
-        <v>0.008739057390233368</v>
+        <v>0.003378172313430123</v>
       </c>
       <c r="D67">
-        <v>0.06982286896572482</v>
+        <v>0.05394565160784721</v>
       </c>
       <c r="E67">
-        <v>0.0158291407971523</v>
+        <v>-0.01758175359459391</v>
       </c>
       <c r="F67">
-        <v>-0.01681440363688428</v>
+        <v>0.04062503696228321</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1178060727917164</v>
+        <v>-0.1164519909609982</v>
       </c>
       <c r="C68">
-        <v>0.2432487998112773</v>
+        <v>0.02607417932075622</v>
       </c>
       <c r="D68">
-        <v>-0.07045234947966199</v>
+        <v>-0.2632854337911388</v>
       </c>
       <c r="E68">
-        <v>-0.03490319044419645</v>
+        <v>0.0871088874762099</v>
       </c>
       <c r="F68">
-        <v>0.03995501474481624</v>
+        <v>-0.03159328197394119</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03147502118080194</v>
+        <v>-0.03945480924721207</v>
       </c>
       <c r="C69">
-        <v>0.02556095773541589</v>
+        <v>0.0009847412888997636</v>
       </c>
       <c r="D69">
-        <v>0.02629001417932636</v>
+        <v>0.009204442332372834</v>
       </c>
       <c r="E69">
-        <v>0.003631192867745423</v>
+        <v>-0.02408133497766233</v>
       </c>
       <c r="F69">
-        <v>-0.01588514958585558</v>
+        <v>0.01161662082279426</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03274510208581027</v>
+        <v>-0.06277571972291565</v>
       </c>
       <c r="C70">
-        <v>0.005989855419414459</v>
+        <v>-0.02797987601606573</v>
       </c>
       <c r="D70">
-        <v>0.0402551508161853</v>
+        <v>0.02851208017501033</v>
       </c>
       <c r="E70">
-        <v>-0.04139325141615549</v>
+        <v>0.0502456857376774</v>
       </c>
       <c r="F70">
-        <v>-0.04007940026268608</v>
+        <v>0.2788718784303058</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.134816679121195</v>
+        <v>-0.1356484312494091</v>
       </c>
       <c r="C71">
-        <v>0.2659486827734094</v>
+        <v>0.03013699972733535</v>
       </c>
       <c r="D71">
-        <v>-0.0723026293359136</v>
+        <v>-0.2784796963391082</v>
       </c>
       <c r="E71">
-        <v>-0.03039065981738006</v>
+        <v>0.0956617372007544</v>
       </c>
       <c r="F71">
-        <v>-0.004163927224667601</v>
+        <v>-0.03798088219226273</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1455177157065784</v>
+        <v>-0.1407666592090334</v>
       </c>
       <c r="C72">
-        <v>-0.0250184106131625</v>
+        <v>0.02459629350195861</v>
       </c>
       <c r="D72">
-        <v>0.01092251319035708</v>
+        <v>0.00503772398353894</v>
       </c>
       <c r="E72">
-        <v>0.01287725788497773</v>
+        <v>-0.04500144372716051</v>
       </c>
       <c r="F72">
-        <v>0.00884539724044392</v>
+        <v>-0.02385178980676608</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2182203133366329</v>
+        <v>-0.2034455136665503</v>
       </c>
       <c r="C73">
-        <v>-0.005881364625916511</v>
+        <v>0.01196367788489104</v>
       </c>
       <c r="D73">
-        <v>0.04554162481383928</v>
+        <v>0.01611300211182763</v>
       </c>
       <c r="E73">
-        <v>-0.06732978231193158</v>
+        <v>-0.0625510531954505</v>
       </c>
       <c r="F73">
-        <v>-0.1194105343518306</v>
+        <v>-0.0334376080401814</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1171190728124906</v>
+        <v>-0.09478579239801525</v>
       </c>
       <c r="C74">
-        <v>-0.0552610865418658</v>
+        <v>0.01221902996379045</v>
       </c>
       <c r="D74">
-        <v>0.06397352498956001</v>
+        <v>0.02045348446877312</v>
       </c>
       <c r="E74">
-        <v>0.01150526370251501</v>
+        <v>-0.04793343664259109</v>
       </c>
       <c r="F74">
-        <v>-0.03043082817773646</v>
+        <v>-0.04722483958983766</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1132826839150643</v>
+        <v>-0.1297498334380541</v>
       </c>
       <c r="C75">
-        <v>-0.05033273458511683</v>
+        <v>0.02638679692750765</v>
       </c>
       <c r="D75">
-        <v>0.02281269970655047</v>
+        <v>0.03480150942108123</v>
       </c>
       <c r="E75">
-        <v>0.007892159471178325</v>
+        <v>-0.06056423951876194</v>
       </c>
       <c r="F75">
-        <v>-0.002917965064942758</v>
+        <v>-0.01356541945659421</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02232565860922061</v>
+        <v>-0.003808542041369698</v>
       </c>
       <c r="C76">
-        <v>0.01764893842892531</v>
+        <v>0.0009040377341605774</v>
       </c>
       <c r="D76">
-        <v>0.008832030587351117</v>
+        <v>-0.002518602252747399</v>
       </c>
       <c r="E76">
-        <v>-0.01181097436281205</v>
+        <v>-0.0006527018511992123</v>
       </c>
       <c r="F76">
-        <v>-0.01827296775075142</v>
+        <v>-0.004132308520860811</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06361942971965766</v>
+        <v>-0.07801834647572221</v>
       </c>
       <c r="C77">
-        <v>-0.05315353652200198</v>
+        <v>0.009822438631861656</v>
       </c>
       <c r="D77">
-        <v>0.00315109365059908</v>
+        <v>0.1151017604969588</v>
       </c>
       <c r="E77">
-        <v>0.003015871123124209</v>
+        <v>-0.03788694502382254</v>
       </c>
       <c r="F77">
-        <v>-0.05439142895730328</v>
+        <v>-0.03212790116909126</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.112395872925013</v>
+        <v>-0.1047103004957478</v>
       </c>
       <c r="C78">
-        <v>-0.01442345967002677</v>
+        <v>0.04138264868524892</v>
       </c>
       <c r="D78">
-        <v>0.07603554192833788</v>
+        <v>0.1145527032182234</v>
       </c>
       <c r="E78">
-        <v>0.3276384768434035</v>
+        <v>-0.07993667632540677</v>
       </c>
       <c r="F78">
-        <v>0.2797301476320329</v>
+        <v>-0.07743914883013321</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1324704932292687</v>
+        <v>-0.164141640808342</v>
       </c>
       <c r="C79">
-        <v>-0.05454133464662313</v>
+        <v>0.02048744040512166</v>
       </c>
       <c r="D79">
-        <v>0.000937625759864311</v>
+        <v>0.01995612804393528</v>
       </c>
       <c r="E79">
-        <v>-0.004645731226989701</v>
+        <v>-0.04943199180566522</v>
       </c>
       <c r="F79">
-        <v>-0.02617345539563223</v>
+        <v>-0.00478472853828981</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06912795831174995</v>
+        <v>-0.08046756913840791</v>
       </c>
       <c r="C80">
-        <v>-0.03500304876082055</v>
+        <v>-0.0005301731246887996</v>
       </c>
       <c r="D80">
-        <v>0.1039808464370413</v>
+        <v>0.05863100729973678</v>
       </c>
       <c r="E80">
-        <v>-0.02304918644687778</v>
+        <v>-0.03685997515313936</v>
       </c>
       <c r="F80">
-        <v>-0.0333274957827373</v>
+        <v>0.01484322690510577</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1366746151590328</v>
+        <v>-0.1233234360743937</v>
       </c>
       <c r="C81">
-        <v>-0.07000649369183926</v>
+        <v>0.03027350890059766</v>
       </c>
       <c r="D81">
-        <v>0.04404136395394613</v>
+        <v>0.01916622942834358</v>
       </c>
       <c r="E81">
-        <v>0.005300893342754689</v>
+        <v>-0.05969902862407916</v>
       </c>
       <c r="F81">
-        <v>-0.02743040365029263</v>
+        <v>-0.006139757045936655</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1560230762533768</v>
+        <v>-0.1643144764717925</v>
       </c>
       <c r="C82">
-        <v>-0.05003060820408982</v>
+        <v>0.02175381815598562</v>
       </c>
       <c r="D82">
-        <v>0.04379830110088918</v>
+        <v>0.01574966539716583</v>
       </c>
       <c r="E82">
-        <v>-0.02967412945738812</v>
+        <v>-0.03549221806431761</v>
       </c>
       <c r="F82">
-        <v>-0.04306388419040337</v>
+        <v>-0.06595887856430509</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08664542903765286</v>
+        <v>-0.06281516927805011</v>
       </c>
       <c r="C83">
-        <v>-0.1202890603124206</v>
+        <v>0.003462846616176352</v>
       </c>
       <c r="D83">
-        <v>0.07161441303514077</v>
+        <v>0.04992059580649392</v>
       </c>
       <c r="E83">
-        <v>0.04308166075727057</v>
+        <v>-0.004934405266555236</v>
       </c>
       <c r="F83">
-        <v>-0.0028539478078847</v>
+        <v>0.04185036110841718</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05827657353898353</v>
+        <v>-0.05932051730377453</v>
       </c>
       <c r="C84">
-        <v>0.04537658093229179</v>
+        <v>0.01120708882808943</v>
       </c>
       <c r="D84">
-        <v>-0.04008573512242689</v>
+        <v>0.06411924744396856</v>
       </c>
       <c r="E84">
-        <v>-0.06964093043182727</v>
+        <v>-0.002980211920062909</v>
       </c>
       <c r="F84">
-        <v>-0.03017233734159388</v>
+        <v>-0.01051153049076429</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1226705726507906</v>
+        <v>-0.1389637652419133</v>
       </c>
       <c r="C85">
-        <v>-0.04035896757301338</v>
+        <v>0.02603692766370303</v>
       </c>
       <c r="D85">
-        <v>0.02220790472183872</v>
+        <v>0.01554126910287523</v>
       </c>
       <c r="E85">
-        <v>-0.0009840092417590725</v>
+        <v>-0.04136242176804685</v>
       </c>
       <c r="F85">
-        <v>-0.04299992067436513</v>
+        <v>-0.04595898578200971</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1725689356512052</v>
+        <v>-0.09504516921618412</v>
       </c>
       <c r="C86">
-        <v>-0.3899142747315841</v>
+        <v>-0.006639749801756742</v>
       </c>
       <c r="D86">
-        <v>-0.8488196158153052</v>
+        <v>0.02498946322138779</v>
       </c>
       <c r="E86">
-        <v>0.002405541301920546</v>
+        <v>-0.1511160388715413</v>
       </c>
       <c r="F86">
-        <v>0.08412536400711258</v>
+        <v>0.8660161366259441</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1193945710732133</v>
+        <v>-0.0981173380619324</v>
       </c>
       <c r="C87">
-        <v>-0.1034977394489583</v>
+        <v>0.02546536063021398</v>
       </c>
       <c r="D87">
-        <v>0.04545992218711459</v>
+        <v>0.07713821526492554</v>
       </c>
       <c r="E87">
-        <v>-0.0009879944719628569</v>
+        <v>0.05275598961359666</v>
       </c>
       <c r="F87">
-        <v>-0.04731148569728867</v>
+        <v>-0.07589422168459167</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05191123703305536</v>
+        <v>-0.06098543899910421</v>
       </c>
       <c r="C88">
-        <v>-0.03025998456264316</v>
+        <v>0.002999619079438937</v>
       </c>
       <c r="D88">
-        <v>0.04844271095836949</v>
+        <v>0.05382776898592318</v>
       </c>
       <c r="E88">
-        <v>-0.05376326873493441</v>
+        <v>-0.02802269302889312</v>
       </c>
       <c r="F88">
-        <v>-0.008939200121428618</v>
+        <v>-0.008028146434984741</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1871580076963876</v>
+        <v>-0.1358791132651692</v>
       </c>
       <c r="C89">
-        <v>0.3520843374411777</v>
+        <v>0.008403934415397097</v>
       </c>
       <c r="D89">
-        <v>-0.1105187735164246</v>
+        <v>-0.255793992403206</v>
       </c>
       <c r="E89">
-        <v>0.042634418163004</v>
+        <v>0.09179470308989625</v>
       </c>
       <c r="F89">
-        <v>-0.004172123841624783</v>
+        <v>-0.01884018329680835</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1477155025986575</v>
+        <v>-0.146663006632654</v>
       </c>
       <c r="C90">
-        <v>0.2464356703952439</v>
+        <v>0.02579577669790607</v>
       </c>
       <c r="D90">
-        <v>-0.06951439690948362</v>
+        <v>-0.2661894399189078</v>
       </c>
       <c r="E90">
-        <v>-0.04609802866551887</v>
+        <v>0.1082441490299157</v>
       </c>
       <c r="F90">
-        <v>-0.008211853641813817</v>
+        <v>-0.02177393143519355</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08057470685366476</v>
+        <v>-0.1190197317293588</v>
       </c>
       <c r="C91">
-        <v>-0.0443487892943871</v>
+        <v>0.01667880364030789</v>
       </c>
       <c r="D91">
-        <v>0.001763163924719643</v>
+        <v>-0.007957166109113584</v>
       </c>
       <c r="E91">
-        <v>-0.002310447632685052</v>
+        <v>-0.05700188781434487</v>
       </c>
       <c r="F91">
-        <v>-0.02905860844858139</v>
+        <v>0.01793150886576961</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1619466933306754</v>
+        <v>-0.1499257687764244</v>
       </c>
       <c r="C92">
-        <v>0.3011862066365265</v>
+        <v>0.0175704617093933</v>
       </c>
       <c r="D92">
-        <v>-0.0874397069138233</v>
+        <v>-0.2966066074540386</v>
       </c>
       <c r="E92">
-        <v>0.01660290375590156</v>
+        <v>0.1044698950400366</v>
       </c>
       <c r="F92">
-        <v>0.009603963348266692</v>
+        <v>-0.01669039201071344</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1496359507696849</v>
+        <v>-0.1514607563542665</v>
       </c>
       <c r="C93">
-        <v>0.2943960144006979</v>
+        <v>0.02232569710783781</v>
       </c>
       <c r="D93">
-        <v>-0.1160717631929959</v>
+        <v>-0.2690708295736597</v>
       </c>
       <c r="E93">
-        <v>-0.07608938203215379</v>
+        <v>0.07486711197459049</v>
       </c>
       <c r="F93">
-        <v>-0.003536195530973171</v>
+        <v>-0.01577465043773256</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1339867303046521</v>
+        <v>-0.1331046730776514</v>
       </c>
       <c r="C94">
-        <v>-0.03431048565659092</v>
+        <v>0.02371594391408221</v>
       </c>
       <c r="D94">
-        <v>0.05562409060750013</v>
+        <v>0.04613119277283702</v>
       </c>
       <c r="E94">
-        <v>0.02239777904696356</v>
+        <v>-0.0607965075100684</v>
       </c>
       <c r="F94">
-        <v>-0.0289390812488445</v>
+        <v>-0.03148025196145806</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1104122064494279</v>
+        <v>-0.1251612416058442</v>
       </c>
       <c r="C95">
-        <v>-0.01967611343250609</v>
+        <v>0.005313197560011083</v>
       </c>
       <c r="D95">
-        <v>0.04103920009635563</v>
+        <v>0.09054129993636453</v>
       </c>
       <c r="E95">
-        <v>0.04299552334903892</v>
+        <v>-0.04410694809025045</v>
       </c>
       <c r="F95">
-        <v>-0.04396361711444683</v>
+        <v>0.01491416653863047</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.012060505965833</v>
+        <v>-0.09922069023554078</v>
       </c>
       <c r="C96">
-        <v>-0.002980479903413143</v>
+        <v>-0.9888666291815564</v>
       </c>
       <c r="D96">
-        <v>0.002053007661739372</v>
+        <v>-0.02958425642565283</v>
       </c>
       <c r="E96">
-        <v>0.008623773379648467</v>
+        <v>-0.05822894649479236</v>
       </c>
       <c r="F96">
-        <v>0.004189985106554458</v>
+        <v>-0.04697517677973918</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1749152095558511</v>
+        <v>-0.1883732517367732</v>
       </c>
       <c r="C97">
-        <v>-0.06242271344273592</v>
+        <v>-0.01080858507898007</v>
       </c>
       <c r="D97">
-        <v>0.1290877890791348</v>
+        <v>-0.007039688384186702</v>
       </c>
       <c r="E97">
-        <v>0.151932409088405</v>
+        <v>-0.017985510451085</v>
       </c>
       <c r="F97">
-        <v>0.8424192578612897</v>
+        <v>0.1692936411990935</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2442238335747998</v>
+        <v>-0.2051167076733888</v>
       </c>
       <c r="C98">
-        <v>-0.05027869804528959</v>
+        <v>0.0071903166322821</v>
       </c>
       <c r="D98">
-        <v>-0.01569765467337556</v>
+        <v>0.01077199431194172</v>
       </c>
       <c r="E98">
-        <v>0.07710641930445403</v>
+        <v>0.09824196462316942</v>
       </c>
       <c r="F98">
-        <v>-0.0253311885335775</v>
+        <v>0.1103665670949824</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04280956255717309</v>
+        <v>-0.05599743452879874</v>
       </c>
       <c r="C99">
-        <v>0.02538209816907883</v>
+        <v>-0.00386815017225561</v>
       </c>
       <c r="D99">
-        <v>0.03574615766825776</v>
+        <v>0.03612267273316903</v>
       </c>
       <c r="E99">
-        <v>0.0256993241291531</v>
+        <v>-0.02670362457505815</v>
       </c>
       <c r="F99">
-        <v>-0.01915865925910902</v>
+        <v>-0.003649696362532313</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02535709452848104</v>
+        <v>-0.1230721841182053</v>
       </c>
       <c r="C100">
-        <v>-0.02400701097060001</v>
+        <v>-0.05041152222253176</v>
       </c>
       <c r="D100">
-        <v>0.1416487152250185</v>
+        <v>0.3483595562096303</v>
       </c>
       <c r="E100">
-        <v>-0.04745456634595206</v>
+        <v>0.8944684612284662</v>
       </c>
       <c r="F100">
-        <v>0.03645692796903912</v>
+        <v>0.07119056101832609</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03307602255628136</v>
+        <v>-0.02708393063228825</v>
       </c>
       <c r="C101">
-        <v>-0.01866123900257081</v>
+        <v>0.008728156915528047</v>
       </c>
       <c r="D101">
-        <v>0.02648139064090392</v>
+        <v>0.03088272025949442</v>
       </c>
       <c r="E101">
-        <v>-0.0353534165643507</v>
+        <v>-0.01149158735494516</v>
       </c>
       <c r="F101">
-        <v>-0.04219954141758661</v>
+        <v>0.01356135971511582</v>
       </c>
     </row>
     <row r="102" spans="1:6">
